--- a/Results/RQ2/pattern_summary.xlsx
+++ b/Results/RQ2/pattern_summary.xlsx
@@ -1,27 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A6E8BE-2B29-3543-9DF9-EA30B6FA6682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C67E69-78F7-4539-88D0-7B61A7A3DBF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="1100" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="1095" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -74,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,12 +122,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -144,6 +130,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -428,48 +420,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -489,137 +483,137 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>7726</v>
+        <v>4427</v>
       </c>
       <c r="C4" s="1">
-        <v>527</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>5455</v>
+        <v>4424</v>
       </c>
       <c r="E4" s="1">
-        <v>2359</v>
+        <v>2530</v>
       </c>
       <c r="F4" s="1">
-        <v>4412</v>
+        <v>872</v>
       </c>
       <c r="G4" s="1">
-        <v>2172</v>
+        <v>2232</v>
       </c>
       <c r="H4" s="1">
-        <v>4555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>2316</v>
+        <v>2404</v>
       </c>
       <c r="C5" s="1">
-        <v>555</v>
+        <v>1034</v>
       </c>
       <c r="D5" s="1">
-        <v>975</v>
+        <v>1049</v>
       </c>
       <c r="E5" s="1">
-        <v>1539</v>
+        <v>1597</v>
       </c>
       <c r="F5" s="1">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="G5" s="1">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="H5" s="1">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>2389</v>
+        <v>1340</v>
       </c>
       <c r="C6" s="1">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="D6" s="1">
-        <v>1761</v>
+        <v>963</v>
       </c>
       <c r="E6" s="1">
-        <v>940</v>
+        <v>1029</v>
       </c>
       <c r="F6" s="1">
-        <v>1439</v>
+        <v>303</v>
       </c>
       <c r="G6" s="1">
-        <v>807</v>
+        <v>851</v>
       </c>
       <c r="H6" s="1">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>6395</v>
+        <v>4322</v>
       </c>
       <c r="C7" s="1">
-        <v>810</v>
+        <v>509</v>
       </c>
       <c r="D7" s="1">
-        <v>4445</v>
+        <v>3641</v>
       </c>
       <c r="E7" s="1">
-        <v>2945</v>
+        <v>3353</v>
       </c>
       <c r="F7" s="1">
-        <v>3159</v>
+        <v>659</v>
       </c>
       <c r="G7" s="1">
-        <v>2748</v>
+        <v>2952</v>
       </c>
       <c r="H7" s="1">
-        <v>3547</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>14149</v>
+        <v>15226</v>
       </c>
       <c r="C8" s="1">
-        <v>1861</v>
+        <v>3870</v>
       </c>
       <c r="D8" s="1">
-        <v>6786</v>
+        <v>7176</v>
       </c>
       <c r="E8" s="1">
-        <v>6696</v>
+        <v>7134</v>
       </c>
       <c r="F8" s="1">
-        <v>2812</v>
+        <v>2910</v>
       </c>
       <c r="G8" s="1">
-        <v>3289</v>
+        <v>3429</v>
       </c>
       <c r="H8" s="1">
-        <v>4892</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>5221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -627,40 +621,40 @@
         <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="1">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -672,111 +666,111 @@
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>7726</v>
-      </c>
-      <c r="C14" s="8">
+        <v>4427</v>
+      </c>
+      <c r="C14" s="6">
         <f>(C4+D4)/B4</f>
-        <v>0.77426870308050733</v>
-      </c>
-      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
         <f>(E4+F4)/B4</f>
-        <v>0.87639140564328244</v>
-      </c>
-      <c r="E14" s="9">
+        <v>0.76846622995256386</v>
+      </c>
+      <c r="E14" s="7">
         <f>(G4+H4)/B4</f>
-        <v>0.87069634998705669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.76485204427377451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2</v>
       </c>
       <c r="B15" s="1">
-        <v>2316</v>
-      </c>
-      <c r="C15" s="8">
+        <v>2404</v>
+      </c>
+      <c r="C15" s="6">
         <f t="shared" ref="C15:C18" si="0">(C5+D5)/B5</f>
-        <v>0.6606217616580311</v>
-      </c>
-      <c r="D15" s="9">
+        <v>0.86647254575707155</v>
+      </c>
+      <c r="D15" s="7">
         <f t="shared" ref="D15:D18" si="1">(E5+F5)/B5</f>
-        <v>0.88514680483592401</v>
-      </c>
-      <c r="E15" s="9">
+        <v>0.87978369384359401</v>
+      </c>
+      <c r="E15" s="7">
         <f t="shared" ref="E15:E18" si="2">(G5+H5)/B5</f>
-        <v>0.79404145077720212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.79326123128119796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>2389</v>
-      </c>
-      <c r="C16" s="8">
+        <v>1340</v>
+      </c>
+      <c r="C16" s="6">
         <f t="shared" si="0"/>
-        <v>0.84847216408539139</v>
-      </c>
-      <c r="D16" s="9">
+        <v>0.98208955223880601</v>
+      </c>
+      <c r="D16" s="7">
         <f t="shared" si="1"/>
-        <v>0.99581414817915448</v>
-      </c>
-      <c r="E16" s="9">
+        <v>0.99402985074626871</v>
+      </c>
+      <c r="E16" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>4</v>
       </c>
       <c r="B17" s="1">
-        <v>6395</v>
-      </c>
-      <c r="C17" s="8">
+        <v>4322</v>
+      </c>
+      <c r="C17" s="6">
         <f t="shared" si="0"/>
-        <v>0.82173573103987485</v>
-      </c>
-      <c r="D17" s="9">
+        <v>0.96020360944007399</v>
+      </c>
+      <c r="D17" s="7">
         <f t="shared" si="1"/>
-        <v>0.9544956997654418</v>
-      </c>
-      <c r="E17" s="9">
+        <v>0.92827394724664503</v>
+      </c>
+      <c r="E17" s="7">
         <f t="shared" si="2"/>
-        <v>0.98436278342455041</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>5</v>
       </c>
       <c r="B18" s="1">
-        <v>14149</v>
-      </c>
-      <c r="C18" s="8">
+        <v>15226</v>
+      </c>
+      <c r="C18" s="6">
         <f t="shared" si="0"/>
-        <v>0.61113859636723444</v>
-      </c>
-      <c r="D18" s="9">
+        <v>0.72546959148824375</v>
+      </c>
+      <c r="D18" s="7">
         <f t="shared" si="1"/>
-        <v>0.67199095342427029</v>
-      </c>
-      <c r="E18" s="9">
+        <v>0.65966110600288974</v>
+      </c>
+      <c r="E18" s="7">
         <f t="shared" si="2"/>
-        <v>0.5782034066011732</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.56810718507815583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -784,13 +778,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="1">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="E19" s="1">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
